--- a/medicine/Pharmacie/Ordre_des_pharmaciens_du_Québec/Ordre_des_pharmaciens_du_Québec.xlsx
+++ b/medicine/Pharmacie/Ordre_des_pharmaciens_du_Québec/Ordre_des_pharmaciens_du_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ordre_des_pharmaciens_du_Qu%C3%A9bec</t>
+          <t>Ordre_des_pharmaciens_du_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Ordre des pharmaciens du Québec (OPQ) a pour mission de veiller à la protection du public en assurant la qualité des soins et des services pharmaceutiques offerts à la population et en faisant la promotion de l'usage approprié des médicaments au sein de la société.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ordre_des_pharmaciens_du_Qu%C3%A9bec</t>
+          <t>Ordre_des_pharmaciens_du_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une histoire en trois temps
 1870 : fondation de l'Association pharmaceutique de la province de Québec
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ordre_des_pharmaciens_du_Qu%C3%A9bec</t>
+          <t>Ordre_des_pharmaciens_du_Québec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Mission, vision et valeurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La mission de l'Ordre des pharmaciens du Québec est de veiller à la protection du public en encourageant les pratiques pharmaceutiques de qualité et en faisant la promotion de l'usage approprié des médicaments au sein de la société.
 Pour remplir sa mission, l'Ordre doit notamment :
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ordre_des_pharmaciens_du_Qu%C3%A9bec</t>
+          <t>Ordre_des_pharmaciens_du_Québec</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La pharmacie est une profession reconnue par le système professionnel mis en place par l’État québécois. Cette reconnaissance implique la présence d’un cadre législatif et réglementaire que tout membre de la profession doit respecter, sous peine de sanctions. Les pharmaciennes et pharmaciens québécois sont assujettis notamment à la Loi sur la pharmacie, au Code des professions ainsi qu’à divers règlements, dont le Code de déontologie des pharmaciens.
 C’est sous l’objectif fondamental de protéger le public que cette législation et cette réglementation ont été adoptées.
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ordre_des_pharmaciens_du_Qu%C3%A9bec</t>
+          <t>Ordre_des_pharmaciens_du_Québec</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,7 +643,9 @@
           <t>Liste des présidents</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Benjamin Lyman (1870 – 1872)
 Nathan Mercer (1872 – 1873, 1874 – 1875)
@@ -663,7 +683,7 @@
 Claude Gagnon (2005 – 2009)
 Diane Lamarre (2009 – 2014)
 Bertrand Bolduc (2014 – 2023)
-Jean-François Desgagné (2023 – )[1]</t>
+Jean-François Desgagné (2023 – )</t>
         </is>
       </c>
     </row>
